--- a/maquette/Classeur1.xlsx
+++ b/maquette/Classeur1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_3\maquette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{74D30B7E-9B04-4BCD-B81A-40EB16CF5611}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD69970F-2363-491D-B097-C5C42E5670A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{73D3153C-0217-4242-99A3-69DCAE5C991F}"/>
   </bookViews>
@@ -41,9 +41,6 @@
     <t>Contraintes techniques</t>
   </si>
   <si>
-    <t>Conraintes métier</t>
-  </si>
-  <si>
     <t>Aucun code CSS dans une balise HTML</t>
   </si>
   <si>
@@ -59,9 +56,6 @@
     <t>L'ensemble du site devra être responsive</t>
   </si>
   <si>
-    <t>Le site doit être compatible avec les dernières versions Chrome, Firefox et Safari</t>
-  </si>
-  <si>
     <t>Le footer doit rester visible si on scroll</t>
   </si>
   <si>
@@ -74,9 +68,6 @@
     <t>La page HTML devra passer la validation HTML sans erreur</t>
   </si>
   <si>
-    <t>devra contenir une page d'accueil avec le logo de l'entreprise, un espace contenant les 4 menus, une section "prochainement" et les rubriques "mentionslégales" et "contactez-nous"</t>
-  </si>
-  <si>
     <t>Le header contient le logo et le footer les "mentions légales" et "contactez-nous" et sont présents sur toutes les pages</t>
   </si>
   <si>
@@ -93,6 +84,15 @@
   </si>
   <si>
     <t>Les titres représentant les catégories de plats devront être soulignés de gauche à droite au survol de la souris</t>
+  </si>
+  <si>
+    <t>Contraintes métier</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Le site doit être compatible avec les dernières versions Chrome, Firefox </t>
+  </si>
+  <si>
+    <t>Devra contenir une page d'accueil avec le logo de l'entreprise, un espace contenant les 4 menus, une section "prochainement" et les rubriques "mentions légales" et "contactez-nous"</t>
   </si>
 </sst>
 </file>
@@ -229,9 +229,33 @@
   </cellStyleXfs>
   <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -241,30 +265,6 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -582,47 +582,47 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="8" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8"/>
+      <c r="E2" s="8"/>
+      <c r="F2" s="8"/>
+      <c r="G2" s="8"/>
+      <c r="H2" s="8"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="12" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="3"/>
-      <c r="C4" s="3"/>
-      <c r="D4" s="4"/>
-      <c r="E4" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="F4" s="3"/>
-      <c r="G4" s="3"/>
-      <c r="H4" s="4"/>
+      <c r="B4" s="13"/>
+      <c r="C4" s="13"/>
+      <c r="D4" s="14"/>
+      <c r="E4" s="12" t="s">
+        <v>17</v>
+      </c>
+      <c r="F4" s="13"/>
+      <c r="G4" s="13"/>
+      <c r="H4" s="14"/>
     </row>
     <row r="5" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="B5" s="9"/>
       <c r="C5" s="9"/>
       <c r="D5" s="9"/>
       <c r="E5" s="9" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
@@ -630,142 +630,141 @@
     </row>
     <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="7"/>
+      <c r="E6" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="F6" s="11"/>
+      <c r="G6" s="11"/>
+      <c r="H6" s="11"/>
     </row>
     <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="12" t="s">
+      <c r="A7" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="E7" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+    </row>
+    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="12"/>
-      <c r="C7" s="12"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="7" t="s">
+      <c r="B8" s="5"/>
+      <c r="C8" s="5"/>
+      <c r="D8" s="5"/>
+      <c r="E8" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="F8" s="11"/>
+      <c r="G8" s="11"/>
+      <c r="H8" s="11"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="11" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="11"/>
+      <c r="C9" s="11"/>
+      <c r="D9" s="11"/>
+      <c r="E9" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="F9" s="11"/>
+      <c r="G9" s="11"/>
+      <c r="H9" s="11"/>
+    </row>
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="11"/>
+      <c r="G10" s="11"/>
+      <c r="H10" s="11"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="11"/>
+      <c r="C11" s="11"/>
+      <c r="D11" s="11"/>
+      <c r="E11" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F11" s="11"/>
+      <c r="G11" s="11"/>
+      <c r="H11" s="11"/>
+    </row>
+    <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="11" t="s">
+        <v>19</v>
+      </c>
+      <c r="B12" s="11"/>
+      <c r="C12" s="11"/>
+      <c r="D12" s="11"/>
+      <c r="E12" s="2"/>
+      <c r="F12" s="2"/>
+      <c r="G12" s="2"/>
+      <c r="H12" s="2"/>
+    </row>
+    <row r="13" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="11" t="s">
         <v>11</v>
       </c>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="7"/>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B8" s="12"/>
-      <c r="C8" s="12"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="7"/>
-    </row>
-    <row r="9" spans="1:8" s="5" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="7" t="s">
-        <v>6</v>
-      </c>
-      <c r="B9" s="7"/>
-      <c r="C9" s="7"/>
-      <c r="D9" s="7"/>
-      <c r="E9" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="7"/>
-    </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="11" t="s">
+      <c r="B13" s="11"/>
+      <c r="C13" s="11"/>
+      <c r="D13" s="11"/>
+      <c r="E13" s="2"/>
+      <c r="F13" s="2"/>
+      <c r="G13" s="2"/>
+      <c r="H13" s="2"/>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="B10" s="11"/>
-      <c r="C10" s="11"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="7"/>
-    </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="7" t="s">
-        <v>8</v>
-      </c>
-      <c r="B11" s="7"/>
-      <c r="C11" s="7"/>
-      <c r="D11" s="7"/>
-      <c r="E11" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="7"/>
-    </row>
-    <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="7" t="s">
-        <v>13</v>
-      </c>
-      <c r="B12" s="7"/>
-      <c r="C12" s="7"/>
-      <c r="D12" s="7"/>
-      <c r="E12" s="6"/>
-      <c r="F12" s="6"/>
-      <c r="G12" s="6"/>
-      <c r="H12" s="6"/>
-    </row>
-    <row r="13" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="7" t="s">
-        <v>14</v>
-      </c>
-      <c r="B13" s="7"/>
-      <c r="C13" s="7"/>
-      <c r="D13" s="7"/>
-      <c r="E13" s="6"/>
-      <c r="F13" s="6"/>
-      <c r="G13" s="6"/>
-      <c r="H13" s="6"/>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A14" s="8" t="s">
-        <v>9</v>
-      </c>
-      <c r="B14" s="8"/>
-      <c r="C14" s="13"/>
-      <c r="D14" s="14"/>
-      <c r="E14" s="6"/>
-      <c r="F14" s="6"/>
-      <c r="G14" s="6"/>
-      <c r="H14" s="6"/>
+      <c r="B14" s="3"/>
+      <c r="C14" s="6"/>
+      <c r="D14" s="7"/>
+      <c r="E14" s="2"/>
+      <c r="F14" s="2"/>
+      <c r="G14" s="2"/>
+      <c r="H14" s="2"/>
     </row>
   </sheetData>
   <mergeCells count="16">
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A12:D12"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
     <mergeCell ref="A4:D4"/>
     <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/maquette/Classeur1.xlsx
+++ b/maquette/Classeur1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\OpenClassrooms\Projet_3\maquette\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CD69970F-2363-491D-B097-C5C42E5670A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8BAC82BA-8CF1-4D24-9E0D-21561B697AC5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1560" yWindow="1560" windowWidth="21600" windowHeight="11505" xr2:uid="{73D3153C-0217-4242-99A3-69DCAE5C991F}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{73D3153C-0217-4242-99A3-69DCAE5C991F}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t xml:space="preserve">Utilisé des règles CSS media et/ou feuilles de styles dédiées identifiéees par un attribut media </t>
   </si>
   <si>
-    <t>L'ensemble du site devra être responsive</t>
-  </si>
-  <si>
     <t>Le footer doit rester visible si on scroll</t>
   </si>
   <si>
@@ -89,10 +86,13 @@
     <t>Contraintes métier</t>
   </si>
   <si>
-    <t xml:space="preserve">Le site doit être compatible avec les dernières versions Chrome, Firefox </t>
-  </si>
-  <si>
     <t>Devra contenir une page d'accueil avec le logo de l'entreprise, un espace contenant les 4 menus, une section "prochainement" et les rubriques "mentions légales" et "contactez-nous"</t>
+  </si>
+  <si>
+    <t>Le site doit être compatible avec les dernières versions Chrome, Firefox</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> L'ensemble du site devra être responsive</t>
   </si>
 </sst>
 </file>
@@ -124,7 +124,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -223,11 +223,22 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -237,25 +248,22 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -264,6 +272,15 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -582,51 +599,51 @@
   <dimension ref="A2:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A10" sqref="A10:D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" s="8" t="s">
+      <c r="A2" s="9" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="8"/>
-      <c r="C2" s="8"/>
-      <c r="D2" s="8"/>
-      <c r="E2" s="8"/>
-      <c r="F2" s="8"/>
-      <c r="G2" s="8"/>
-      <c r="H2" s="8"/>
+      <c r="B2" s="9"/>
+      <c r="C2" s="9"/>
+      <c r="D2" s="9"/>
+      <c r="E2" s="9"/>
+      <c r="F2" s="9"/>
+      <c r="G2" s="9"/>
+      <c r="H2" s="9"/>
     </row>
     <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="12" t="s">
+      <c r="A4" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="B4" s="13"/>
-      <c r="C4" s="13"/>
-      <c r="D4" s="14"/>
-      <c r="E4" s="12" t="s">
-        <v>17</v>
-      </c>
-      <c r="F4" s="13"/>
-      <c r="G4" s="13"/>
-      <c r="H4" s="14"/>
+      <c r="B4" s="12"/>
+      <c r="C4" s="12"/>
+      <c r="D4" s="13"/>
+      <c r="E4" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F4" s="12"/>
+      <c r="G4" s="12"/>
+      <c r="H4" s="13"/>
     </row>
     <row r="5" spans="1:8" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
-      <c r="H5" s="9"/>
+      <c r="A5" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8"/>
+      <c r="E5" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="F5" s="8"/>
+      <c r="G5" s="8"/>
+      <c r="H5" s="8"/>
     </row>
     <row r="6" spans="1:8" ht="33.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="10" t="s">
@@ -635,101 +652,101 @@
       <c r="B6" s="10"/>
       <c r="C6" s="10"/>
       <c r="D6" s="10"/>
-      <c r="E6" s="11" t="s">
+      <c r="E6" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="F6" s="7"/>
+      <c r="G6" s="7"/>
+      <c r="H6" s="7"/>
+    </row>
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>3</v>
+      </c>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="E7" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="F6" s="11"/>
-      <c r="G6" s="11"/>
-      <c r="H6" s="11"/>
-    </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="5"/>
-      <c r="C7" s="5"/>
-      <c r="E7" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="F7" s="11"/>
-      <c r="G7" s="11"/>
-      <c r="H7" s="11"/>
+      <c r="F7" s="7"/>
+      <c r="G7" s="7"/>
+      <c r="H7" s="7"/>
     </row>
     <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+      <c r="A8" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B8" s="5"/>
-      <c r="C8" s="5"/>
-      <c r="D8" s="5"/>
-      <c r="E8" s="11" t="s">
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+      <c r="E8" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" s="7"/>
+      <c r="G8" s="7"/>
+      <c r="H8" s="7"/>
+    </row>
+    <row r="9" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="7" t="s">
+        <v>5</v>
+      </c>
+      <c r="B9" s="7"/>
+      <c r="C9" s="7"/>
+      <c r="D9" s="7"/>
+      <c r="E9" s="7" t="s">
         <v>13</v>
       </c>
-      <c r="F8" s="11"/>
-      <c r="G8" s="11"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="9" spans="1:8" s="1" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="B9" s="11"/>
-      <c r="C9" s="11"/>
-      <c r="D9" s="11"/>
-      <c r="E9" s="11" t="s">
+      <c r="F9" s="7"/>
+      <c r="G9" s="7"/>
+      <c r="H9" s="7"/>
+    </row>
+    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="16"/>
+      <c r="E10" s="7" t="s">
         <v>14</v>
       </c>
-      <c r="F9" s="11"/>
-      <c r="G9" s="11"/>
-      <c r="H9" s="11"/>
-    </row>
-    <row r="10" spans="1:8" ht="41.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="11" t="s">
+      <c r="F10" s="7"/>
+      <c r="G10" s="7"/>
+      <c r="H10" s="7"/>
+    </row>
+    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="7" t="s">
+        <v>19</v>
+      </c>
+      <c r="B11" s="7"/>
+      <c r="C11" s="7"/>
+      <c r="D11" s="7"/>
+      <c r="E11" s="7" t="s">
         <v>15</v>
       </c>
-      <c r="F10" s="11"/>
-      <c r="G10" s="11"/>
-      <c r="H10" s="11"/>
-    </row>
-    <row r="11" spans="1:8" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="11" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="11"/>
-      <c r="C11" s="11"/>
-      <c r="D11" s="11"/>
-      <c r="E11" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F11" s="11"/>
-      <c r="G11" s="11"/>
-      <c r="H11" s="11"/>
+      <c r="F11" s="7"/>
+      <c r="G11" s="7"/>
+      <c r="H11" s="7"/>
     </row>
     <row r="12" spans="1:8" ht="63" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="11" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="11"/>
-      <c r="C12" s="11"/>
-      <c r="D12" s="11"/>
+      <c r="A12" s="7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B12" s="7"/>
+      <c r="C12" s="7"/>
+      <c r="D12" s="7"/>
       <c r="E12" s="2"/>
       <c r="F12" s="2"/>
       <c r="G12" s="2"/>
       <c r="H12" s="2"/>
     </row>
     <row r="13" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A13" s="11" t="s">
-        <v>11</v>
-      </c>
-      <c r="B13" s="11"/>
-      <c r="C13" s="11"/>
-      <c r="D13" s="11"/>
+      <c r="A13" s="7" t="s">
+        <v>10</v>
+      </c>
+      <c r="B13" s="7"/>
+      <c r="C13" s="7"/>
+      <c r="D13" s="7"/>
       <c r="E13" s="2"/>
       <c r="F13" s="2"/>
       <c r="G13" s="2"/>
@@ -737,23 +754,18 @@
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B14" s="3"/>
-      <c r="C14" s="6"/>
-      <c r="D14" s="7"/>
+      <c r="C14" s="5"/>
+      <c r="D14" s="6"/>
       <c r="E14" s="2"/>
       <c r="F14" s="2"/>
       <c r="G14" s="2"/>
       <c r="H14" s="2"/>
     </row>
   </sheetData>
-  <mergeCells count="16">
-    <mergeCell ref="A13:D13"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E11:H11"/>
-    <mergeCell ref="A12:D12"/>
+  <mergeCells count="17">
     <mergeCell ref="E5:H5"/>
     <mergeCell ref="E6:H6"/>
     <mergeCell ref="E7:H7"/>
@@ -761,10 +773,16 @@
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A5:D5"/>
     <mergeCell ref="A6:D6"/>
+    <mergeCell ref="A4:D4"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A13:D13"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E11:H11"/>
+    <mergeCell ref="A12:D12"/>
     <mergeCell ref="A9:D9"/>
     <mergeCell ref="A11:D11"/>
-    <mergeCell ref="A4:D4"/>
-    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="A10:D10"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
